--- a/outputs-r202/test-f__Bifidobacteriaceae.xlsx
+++ b/outputs-r202/test-f__Bifidobacteriaceae.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
   <si>
     <t>Row</t>
   </si>
@@ -76,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -86,14 +86,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -115,110 +119,110 @@
     <col min="7" max="7" width="18" customWidth="true"/>
     <col min="8" max="8" width="20.7109375" customWidth="true"/>
     <col min="9" max="9" width="15.5703125" customWidth="true"/>
-    <col min="10" max="10" width="15.5703125" customWidth="true"/>
+    <col min="10" max="10" width="14.28515625" customWidth="true"/>
     <col min="11" max="11" width="10.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>2.2199611591520234e-14</v>
+        <v>2.2193370718418738e-14</v>
       </c>
       <c r="C2">
-        <v>2.2199611591520234e-14</v>
+        <v>2.2193370718418738e-14</v>
       </c>
       <c r="D2">
-        <v>2.2199611591520234e-14</v>
+        <v>2.2193370718418738e-14</v>
       </c>
       <c r="E2">
-        <v>0.99520959316932966</v>
+        <v>0.93372218357931902</v>
       </c>
       <c r="F2">
-        <v>9.5647447469689394e-08</v>
+        <v>2.2193370718418738e-14</v>
       </c>
       <c r="G2">
-        <v>2.2199611591520234e-14</v>
+        <v>2.2193370718418738e-14</v>
       </c>
       <c r="H2">
-        <v>0.0047903111830897337</v>
+        <v>0.00012827202969418821</v>
       </c>
       <c r="I2">
-        <v>2.2199611591520234e-14</v>
+        <v>2.2193370718418738e-14</v>
       </c>
       <c r="J2">
-        <v>2.2199611591520234e-14</v>
+        <v>0.066149544390853576</v>
       </c>
       <c r="K2">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>2.219947874391238e-14</v>
+        <v>4.2348000078893535e-12</v>
       </c>
       <c r="C3">
-        <v>2.219947874391238e-14</v>
+        <v>4.2348000078893535e-12</v>
       </c>
       <c r="D3">
-        <v>2.219947874391238e-14</v>
+        <v>4.2348000078893535e-12</v>
       </c>
       <c r="E3">
-        <v>0.93632321484140857</v>
+        <v>0.75407262251723561</v>
       </c>
       <c r="F3">
-        <v>2.219947874391238e-14</v>
+        <v>0.21504319992968612</v>
       </c>
       <c r="G3">
-        <v>2.219947874391238e-14</v>
+        <v>4.2348000078893511e-12</v>
       </c>
       <c r="H3">
-        <v>3.1975512310767157e-06</v>
+        <v>0.030884177527669303</v>
       </c>
       <c r="I3">
-        <v>2.219947874391238e-14</v>
+        <v>4.2348000078893511e-12</v>
       </c>
       <c r="J3">
-        <v>0.063673587607227314</v>
+        <v>4.2348000078893511e-12</v>
       </c>
       <c r="K3">
         <v>4</v>
